--- a/Problems.xlsx
+++ b/Problems.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>S.No.</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>https://takeuforward.org/data-structure/subset-ii-print-all-the-unique-subsets/</t>
+  </si>
+  <si>
+    <t>Combination Sum</t>
+  </si>
+  <si>
+    <t>At every element consider only from itself to last element to avoid duplicate permutations</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combination-sum/</t>
   </si>
 </sst>
 </file>
@@ -625,10 +634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,10 +690,25 @@
         <v>38</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
